--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>TBLA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,47 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
+      <c r="H7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43921</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -709,57 +713,69 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>338800</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>329100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>303000</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1188900</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>267700</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>279300</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>228800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>213500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>869400</v>
+      </c>
+      <c r="H9" s="3">
+        <v>183600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>226600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -767,28 +783,34 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>89500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>319500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>84100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>52700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -796,8 +818,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,28 +837,30 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>23900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>99400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>21900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22000</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -838,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +903,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +938,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,28 +989,30 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2600</v>
+        <v>338900</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>382500</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>281300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1162700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>249400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>299200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -964,28 +1020,34 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-53400</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>21700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-19900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1055,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,28 +1074,30 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>13900</v>
       </c>
       <c r="E20" s="3">
-        <v>-20200</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>-800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1035,28 +1105,34 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>29100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>57400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-9600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1064,8 +1140,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,28 +1175,34 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11800</v>
+        <v>13800</v>
       </c>
       <c r="E23" s="3">
-        <v>-20900</v>
+        <v>-53500</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>23400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-19400</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1122,37 +1210,49 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>14900</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>4500</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,28 +1280,34 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11800</v>
+        <v>17300</v>
       </c>
       <c r="E26" s="3">
-        <v>-20900</v>
+        <v>-61400</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>18600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-23900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1209,28 +1315,34 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11800</v>
+        <v>17300</v>
       </c>
       <c r="E27" s="3">
-        <v>-20900</v>
+        <v>-67400</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-29400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1238,8 +1350,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,28 +1490,34 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-13900</v>
       </c>
       <c r="E32" s="3">
-        <v>20200</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1383,28 +1525,34 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11800</v>
+        <v>17300</v>
       </c>
       <c r="E33" s="3">
-        <v>-20900</v>
+        <v>-67400</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-29400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1560,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,28 +1595,34 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11800</v>
+        <v>17300</v>
       </c>
       <c r="E35" s="3">
-        <v>-20900</v>
+        <v>-67400</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-29400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1470,33 +1630,39 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
+      <c r="H38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43921</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1504,8 +1670,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,19 +1704,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>800</v>
+        <v>311800</v>
       </c>
       <c r="E41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>585200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>229300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1559,8 +1735,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,37 +1770,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>190700</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>139000</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>125600</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,19 +1840,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>48400</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>38700</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>32400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1675,19 +1875,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1100</v>
+        <v>550800</v>
       </c>
       <c r="E46" s="3">
-        <v>1400</v>
+        <v>763000</v>
       </c>
       <c r="F46" s="3">
-        <v>500</v>
+        <v>387300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1704,95 +1910,119 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>258800</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>258800</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>117000</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>116700</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>124200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>812900</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>21800</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>22500</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,37 +2085,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>25100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>26600</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>24300</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,19 +2155,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>259900</v>
+        <v>1505800</v>
       </c>
       <c r="E54" s="3">
-        <v>260200</v>
+        <v>928100</v>
       </c>
       <c r="F54" s="3">
-        <v>500</v>
+        <v>558300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1936,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,48 +2224,56 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>210100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>157700</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>152900</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>3000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>100</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2020,19 +2290,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41200</v>
+        <v>125300</v>
       </c>
       <c r="E59" s="3">
-        <v>53300</v>
+        <v>116300</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>101200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2049,19 +2325,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>41200</v>
+        <v>338400</v>
       </c>
       <c r="E60" s="3">
-        <v>53300</v>
+        <v>274000</v>
       </c>
       <c r="F60" s="3">
-        <v>400</v>
+        <v>254100</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2078,13 +2360,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>285900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2107,37 +2395,49 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>136500</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>106700</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>59900</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,19 +2535,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41200</v>
+        <v>760800</v>
       </c>
       <c r="E66" s="3">
-        <v>53300</v>
+        <v>380700</v>
       </c>
       <c r="F66" s="3">
-        <v>400</v>
+        <v>314000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2252,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2335,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>170200</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2352,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,19 +2725,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9200</v>
+        <v>-57000</v>
       </c>
       <c r="E72" s="3">
-        <v>-20900</v>
+        <v>-74300</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>-12900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,19 +2865,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>218700</v>
+        <v>745000</v>
       </c>
       <c r="E76" s="3">
-        <v>206900</v>
+        <v>547300</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,33 +2935,39 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
-        <v>44104</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
+      <c r="H80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43921</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2589,28 +2975,34 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11800</v>
+        <v>17300</v>
       </c>
       <c r="E81" s="3">
-        <v>-20900</v>
+        <v>-67400</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-29400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2618,8 +3010,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>9800</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,28 +3235,34 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>26600</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
+        <v>23100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-9100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>139100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>36800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>11000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2834,8 +3270,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-7100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-16100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-17800</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-7000</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-590600</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-16300</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>10900</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>5800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,91 +3580,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>290000</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>346200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-1300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-300</v>
+        <v>-273500</v>
       </c>
       <c r="E102" s="3">
-        <v>1100</v>
+        <v>356000</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>-13500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>155900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>46100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>15700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,51 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,34 +719,37 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>407700</v>
+      </c>
+      <c r="E8" s="3">
         <v>338800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>329100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>303000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1188900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>267700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>279300</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -754,32 +757,35 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E9" s="3">
         <v>231100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>228800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>213500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>869400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>183600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>226600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,32 +795,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E10" s="3">
         <v>107700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>89500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>319500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>84100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>52700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,32 +851,33 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E12" s="3">
         <v>29900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>99400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -874,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,32 +1016,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E17" s="3">
         <v>338900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>382500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>281300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1162700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>249400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>299200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,32 +1052,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-53400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>18300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,32 +1108,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
         <v>13900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,32 +1144,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E21" s="3">
         <v>27000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-44800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>57400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1182,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,32 +1220,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E23" s="3">
         <v>13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-53500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>23400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-19400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,34 +1258,37 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1251,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,32 +1334,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>17300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-61400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23900</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,32 +1372,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>17300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-67400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1356,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,32 +1562,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1531,32 +1600,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>17300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-67400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1566,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,32 +1676,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>17300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-67400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1636,37 +1714,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1676,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,23 +1791,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>319300</v>
+      </c>
+      <c r="E41" s="3">
         <v>311800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>585200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>229300</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,23 +1865,26 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>245200</v>
+      </c>
+      <c r="E43" s="3">
         <v>190700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>139000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>125600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1802,8 +1894,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1811,8 +1903,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,23 +1941,26 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E45" s="3">
         <v>48400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32400</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,23 +1979,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>628900</v>
+      </c>
+      <c r="E46" s="3">
         <v>550800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>763000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>387300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1942,8 +2046,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -1951,23 +2055,26 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E48" s="3">
         <v>117000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>124200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1977,8 +2084,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1986,23 +2093,26 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>801800</v>
+      </c>
+      <c r="E49" s="3">
         <v>812900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>21800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>22500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2012,8 +2122,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2021,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,23 +2207,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E52" s="3">
         <v>25100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>26600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2117,8 +2236,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2126,8 +2245,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,23 +2283,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1597800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1505800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>928100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>558300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,23 +2355,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>261600</v>
+      </c>
+      <c r="E57" s="3">
         <v>210100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>157700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>152900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2382,8 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2261,16 +2391,19 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="E58" s="3">
+        <v>3000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2296,23 +2429,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E59" s="3">
         <v>125300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>116300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,23 +2467,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400600</v>
+      </c>
+      <c r="E60" s="3">
         <v>338400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>274000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>254100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,17 +2505,20 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>285400</v>
+      </c>
+      <c r="E61" s="3">
         <v>285900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2401,23 +2543,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E62" s="3">
         <v>136500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59900</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2572,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2436,8 +2581,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,23 +2695,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>830300</v>
+      </c>
+      <c r="E66" s="3">
         <v>760800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>380700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>314000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2673,11 +2840,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>170200</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2696,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,23 +2901,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-57000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-74300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,23 +3053,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>767600</v>
+      </c>
+      <c r="E76" s="3">
         <v>745000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>547300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>74000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,37 +3129,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2981,32 +3172,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>17300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-67400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,34 +3228,35 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E83" s="3">
         <v>13200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9800</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3066,8 +3264,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,32 +3454,35 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E89" s="3">
         <v>26600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>139100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,34 +3510,35 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-17800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3326,8 +3546,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,34 +3622,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-590600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>8300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>5800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3431,8 +3660,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,34 +3828,37 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E100" s="3">
         <v>290000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>346200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -3621,8 +3866,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3630,25 +3878,25 @@
         <v>500</v>
       </c>
       <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3656,32 +3904,35 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-273500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>356000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>155900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>46100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3689,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>TBLA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,37 +723,40 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>354700</v>
+      </c>
+      <c r="E8" s="3">
         <v>407700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>338800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>329100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>303000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1188900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>267700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>279300</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -760,35 +764,38 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>242700</v>
+      </c>
+      <c r="E9" s="3">
         <v>264000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>231100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>228800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>213500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>869400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>183600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>226600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,35 +805,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E10" s="3">
         <v>143700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>107700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>89500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>319500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>84100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>52700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,35 +865,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E12" s="3">
         <v>34000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>99400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>389000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>338900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>382500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>281300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1162700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>249400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>299200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>18700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-53400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,35 +1142,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1800</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>13900</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="3">
+        <v>15100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,35 +1181,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>39900</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>27000</v>
+        <v>43700</v>
       </c>
       <c r="F21" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-44800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,31 +1222,34 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1223,35 +1263,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E23" s="3">
         <v>16900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-53500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>23400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-19400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,37 +1304,40 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>16300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-61400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-67400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,35 +1632,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>1800</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-13900</v>
+        <v>-2000</v>
       </c>
       <c r="F32" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-67400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-67400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>277900</v>
+      </c>
+      <c r="E41" s="3">
         <v>319300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>311800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>585200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>229300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,31 +1917,34 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>40000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1868,26 +1958,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>199300</v>
+      </c>
+      <c r="E43" s="3">
         <v>245200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>190700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>139000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>125600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1897,8 +1990,8 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,26 +2040,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E45" s="3">
         <v>64400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,26 +2081,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>591400</v>
+      </c>
+      <c r="E46" s="3">
         <v>628900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>550800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>763000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>387300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2049,8 +2154,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2058,26 +2163,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E48" s="3">
         <v>128400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>124200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2087,8 +2195,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2096,26 +2204,29 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>801800</v>
+        <v>785700</v>
       </c>
       <c r="E49" s="3">
+        <v>801300</v>
+      </c>
+      <c r="F49" s="3">
         <v>812900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>22500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2236,8 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,26 +2327,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E52" s="3">
         <v>38700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2359,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1597800</v>
+        <v>1538400</v>
       </c>
       <c r="E54" s="3">
+        <v>1597300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1505800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>928100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>558300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,26 +2486,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>261600</v>
+        <v>215600</v>
       </c>
       <c r="E57" s="3">
+        <v>259900</v>
+      </c>
+      <c r="F57" s="3">
         <v>210100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>157700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>152900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,8 +2516,8 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,8 +2539,8 @@
       <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>3000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2432,26 +2566,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>136000</v>
+        <v>123100</v>
       </c>
       <c r="E59" s="3">
+        <v>137600</v>
+      </c>
+      <c r="F59" s="3">
         <v>125300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>116300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>101200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>341700</v>
+      </c>
+      <c r="E60" s="3">
         <v>400600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>338400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>274000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>254100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,20 +2648,23 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E61" s="3">
         <v>285400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>285900</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2546,26 +2689,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>144300</v>
+        <v>117700</v>
       </c>
       <c r="E62" s="3">
+        <v>143800</v>
+      </c>
+      <c r="F62" s="3">
         <v>136500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>59900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2721,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>830300</v>
+        <v>744500</v>
       </c>
       <c r="E66" s="3">
+        <v>829700</v>
+      </c>
+      <c r="F66" s="3">
         <v>760800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>380700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>314000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,11 +3011,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>170200</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,26 +3075,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-57000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-74300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>767600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>745000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>547300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>74000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-67400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,37 +3427,38 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E83" s="3">
         <v>23100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9800</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E89" s="3">
         <v>23000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>139100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,37 +3731,38 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-17800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,37 +3852,40 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-590600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>8300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>5800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,37 +4074,40 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>290000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>346200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -3869,37 +4115,40 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>500</v>
+        <v>-700</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
       </c>
       <c r="F101" s="3">
+        <v>500</v>
+      </c>
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -3907,35 +4156,38 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E102" s="3">
         <v>7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-273500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>356000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>155900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>TBLA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,40 +727,43 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>342700</v>
+      </c>
+      <c r="E8" s="3">
         <v>354700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>407700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>338800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>329100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>303000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1188900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>267700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>279300</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -767,38 +771,41 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E9" s="3">
         <v>242700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>264000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>231100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>228800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>213500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>869400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>183600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>226600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,38 +815,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E10" s="3">
         <v>112000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>143700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>107700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>89500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>319500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>84100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,38 +879,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E12" s="3">
         <v>30400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>99400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,38 +1070,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>352200</v>
       </c>
       <c r="E17" s="3">
+        <v>362400</v>
+      </c>
+      <c r="F17" s="3">
         <v>389000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>338900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>382500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>281300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1162700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>249400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>299200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1085,38 +1112,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-9500</v>
       </c>
       <c r="E18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F18" s="3">
         <v>18700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-53400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,38 +1176,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,38 +1218,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>18200</v>
       </c>
       <c r="E21" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F21" s="3">
         <v>43700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-44800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>26600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-9600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,23 +1262,26 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1251,8 +1291,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1266,38 +1306,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E23" s="3">
         <v>3500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-53500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,40 +1350,43 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,38 +1438,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-5000</v>
       </c>
       <c r="E26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-61400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,38 +1482,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-5000</v>
       </c>
       <c r="E27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-67400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-29400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,38 +1702,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,38 +1746,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-5000</v>
       </c>
       <c r="E33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-67400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-29400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,38 +1834,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-5000</v>
       </c>
       <c r="E35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-67400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-29400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,43 +1878,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>233700</v>
+      </c>
+      <c r="E41" s="3">
         <v>277900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>319300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>311800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>585200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>229300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,17 +2007,20 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E42" s="3">
         <v>40000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2036,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1961,29 +2051,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>199600</v>
+      </c>
+      <c r="E43" s="3">
         <v>199300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>245200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>190700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>139000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>125600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2086,8 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E45" s="3">
         <v>74200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>64400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>48400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>583900</v>
+      </c>
+      <c r="E46" s="3">
         <v>591400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>628900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>550800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>763000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>387300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2227,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2157,8 +2262,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2166,29 +2271,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>133500</v>
+      </c>
+      <c r="E48" s="3">
         <v>126700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>128400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>117000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>124200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2198,8 +2306,8 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2207,29 +2315,32 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>769900</v>
+      </c>
+      <c r="E49" s="3">
         <v>785700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>801300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>812900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>21800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>22500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,8 +2350,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,29 +2447,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E52" s="3">
         <v>34600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2482,8 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1523000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1538400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1597300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1505800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>928100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>558300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E57" s="3">
         <v>215600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>259900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>210100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>157700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>152900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2519,8 +2650,8 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,8 +2676,8 @@
       <c r="F58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>3000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>118800</v>
+      </c>
+      <c r="E59" s="3">
         <v>123100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>137600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>125300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>116300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2747,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>336200</v>
+      </c>
+      <c r="E60" s="3">
         <v>341700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>338400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>274000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>254100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,23 +2791,26 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>284600</v>
+      </c>
+      <c r="E61" s="3">
         <v>285000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>285400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>285900</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2692,29 +2835,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E62" s="3">
         <v>117700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>143800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>136500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>106700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>59900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2724,8 +2870,8 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>715200</v>
+      </c>
+      <c r="E66" s="3">
         <v>744500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>829700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>760800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>380700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>314000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,11 +3182,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>170200</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,29 +3249,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-74300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>807800</v>
       </c>
       <c r="E76" s="3">
+        <v>793900</v>
+      </c>
+      <c r="F76" s="3">
         <v>767600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>745000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>547300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>74000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,43 +3513,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3370,38 +3562,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-5000</v>
       </c>
       <c r="E81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-67400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-29400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,40 +3626,41 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E83" s="3">
         <v>22700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>23100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9800</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,38 +3888,41 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>8100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>139100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,40 +3952,41 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-17800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,40 +4082,43 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-49600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-590600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,40 +4320,43 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>290000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>346200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4118,40 +4364,43 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-700</v>
-      </c>
-      <c r="E101" s="3">
-        <v>500</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" s="3">
+        <v>500</v>
+      </c>
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4159,38 +4408,41 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-273500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>356000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>155900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>TBLA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,63 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,43 +731,46 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>332500</v>
+      </c>
+      <c r="E8" s="3">
         <v>342700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>354700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>407700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>338800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>329100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>303000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1188900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>267700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>279300</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -774,41 +778,44 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>229800</v>
+      </c>
+      <c r="E9" s="3">
         <v>226300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>242700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>264000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>231100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>228800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>213500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>869400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>183600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>226600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,41 +825,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E10" s="3">
         <v>116400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>112000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>143700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>107700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>89500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>319500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>84100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>52700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,41 +893,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E12" s="3">
         <v>34100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>99400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,41 +1097,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>352200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>362400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>389000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>338900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>382500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>281300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1162700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>249400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>299200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,41 +1142,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-53400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,41 +1210,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,41 +1255,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>18200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-44800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>26600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-9600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,26 +1302,29 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,8 +1334,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1309,41 +1349,44 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-53500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,43 +1396,46 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,41 +1490,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-61400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,41 +1537,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-67400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-29400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1584,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,41 +1772,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,41 +1819,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-67400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1866,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,41 +1913,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-67400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,46 +1960,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +2012,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E41" s="3">
         <v>233700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>277900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>319300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>311800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>585200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>229300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,20 +2097,23 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E42" s="3">
         <v>74700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>40000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,8 +2129,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2054,32 +2144,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>184800</v>
+      </c>
+      <c r="E43" s="3">
         <v>199600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>199300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>245200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>190700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>139000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>125600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2089,8 +2182,8 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,32 +2238,35 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E45" s="3">
         <v>75900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>74200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>64400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>48400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>564600</v>
+      </c>
+      <c r="E46" s="3">
         <v>583900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>591400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>628900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>550800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>763000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>387300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2265,8 +2370,8 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2274,32 +2379,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>139000</v>
+      </c>
+      <c r="E48" s="3">
         <v>133500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>126700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>128400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>117000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>116700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>124200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,8 +2417,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2318,32 +2426,35 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>762700</v>
+      </c>
+      <c r="E49" s="3">
         <v>769900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>785700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>801300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>812900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>21800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>22500</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2353,8 +2464,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,32 +2567,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E52" s="3">
         <v>35700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>34600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>24300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2485,8 +2605,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1513900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1523000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1538400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1597300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1505800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>928100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>558300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>207800</v>
+      </c>
+      <c r="E57" s="3">
         <v>214500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>215600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>259900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>210100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>157700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>152900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2784,8 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2679,8 +2813,8 @@
       <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>3000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2706,32 +2840,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E59" s="3">
         <v>118800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>123100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>137600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>125300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>116300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>325200</v>
+      </c>
+      <c r="E60" s="3">
         <v>336200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>341700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>338400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>274000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>254100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,26 +2934,29 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>284300</v>
+      </c>
+      <c r="E61" s="3">
         <v>284600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>285000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>285400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>285900</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2838,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E62" s="3">
         <v>94300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>117700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>143800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>136500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>106700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>59900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2873,8 +3019,8 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>712400</v>
+      </c>
+      <c r="E66" s="3">
         <v>715200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>744500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>829700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>760800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>380700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>314000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3185,11 +3353,11 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>170200</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-57600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-56400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-57000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-74300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>801500</v>
+      </c>
+      <c r="E76" s="3">
         <v>807800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>793900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>767600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>745000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>547300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>74000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,46 +3705,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3565,41 +3757,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-67400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3609,8 +3804,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,43 +3825,44 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E83" s="3">
         <v>22800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,41 +4105,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E89" s="3">
         <v>2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>23100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>139100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,43 +4173,44 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,43 +4312,46 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-44200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-590600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,43 +4566,46 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>290000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>346200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4367,43 +4613,46 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>500</v>
       </c>
       <c r="G101" s="3">
         <v>500</v>
       </c>
       <c r="H101" s="3">
+        <v>500</v>
+      </c>
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4411,41 +4660,44 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-273500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>356000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>155900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>46100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
   <si>
     <t>TBLA</t>
   </si>
@@ -1103,8 +1103,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>353900</v>
       </c>
       <c r="E17" s="3">
         <v>352200</v>
@@ -1150,8 +1150,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-21400</v>
       </c>
       <c r="E18" s="3">
         <v>-9500</v>
@@ -1216,8 +1216,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>2700</v>
       </c>
       <c r="E20" s="3">
         <v>5000</v>
@@ -1263,8 +1263,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>4500</v>
       </c>
       <c r="E21" s="3">
         <v>18200</v>
@@ -1310,8 +1310,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>6300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1498,8 +1498,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-26000</v>
       </c>
       <c r="E26" s="3">
         <v>-5000</v>
@@ -1545,8 +1545,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-26000</v>
       </c>
       <c r="E27" s="3">
         <v>-5000</v>
@@ -1780,8 +1780,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-2700</v>
       </c>
       <c r="E32" s="3">
         <v>-5000</v>
@@ -1827,8 +1827,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-26000</v>
       </c>
       <c r="E33" s="3">
         <v>-5000</v>
@@ -1921,8 +1921,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-26000</v>
       </c>
       <c r="E35" s="3">
         <v>-5000</v>
@@ -2990,7 +2990,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60300</v>
+        <v>102900</v>
       </c>
       <c r="E62" s="3">
         <v>94300</v>
@@ -3765,8 +3765,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-26000</v>
       </c>
       <c r="E81" s="3">
         <v>-5000</v>

--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>TBLA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,243 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>327700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>371300</v>
+      </c>
+      <c r="F8" s="3">
         <v>332500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>342700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>354700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>407700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>338800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>329100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>303000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1188900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>267700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>279300</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>238100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>238100</v>
+      </c>
+      <c r="F9" s="3">
         <v>229800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>226300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>242700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>264000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>231100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>228800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>213500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>869400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>183600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>226600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>133200</v>
+      </c>
+      <c r="F10" s="3">
         <v>102700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>116400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>112000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>143700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>107700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>89500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>319500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>84100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>52700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +919,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F12" s="3">
         <v>36200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>34100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>30400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>34000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>29900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>30100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>23900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>99400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>21900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>22000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1021,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1074,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1127,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1149,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>356500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>346200</v>
+      </c>
+      <c r="F17" s="3">
         <v>353900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>352200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>362400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>389000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>338900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>382500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>281300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1162700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>249400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>299200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-21400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-7700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>18700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-53400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>21700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>26200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>18300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-19900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,137 +1276,151 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>14600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>15100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F21" s="3">
         <v>4500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>29600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>43700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>28200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-44800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>29100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>57400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>26600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-9600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>6300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1352,102 +1431,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-25000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-53500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>20800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>23400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>17600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-19400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>16300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1590,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-26000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>17300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-61400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>12900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-23900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-26000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>17300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-67400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>12700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-29400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1749,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1802,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1855,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1908,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-14600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-15100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-26000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>17300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-67400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>12700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-29400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2067,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-26000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>17300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-67400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>12700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-29400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2203,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2224,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>165900</v>
+      </c>
+      <c r="F41" s="3">
         <v>188500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>233700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>277900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>319300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>311800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>585200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>229300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,26 +2273,32 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>96900</v>
+      </c>
+      <c r="F42" s="3">
         <v>119800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>74700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>40000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2132,11 +2311,11 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2147,55 +2326,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>212300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>256700</v>
+      </c>
+      <c r="F43" s="3">
         <v>184800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>199600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>199300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>245200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>190700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>139000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>125600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2432,44 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F45" s="3">
         <v>71500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>75900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>74200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>64400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>48400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>38700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>32400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2485,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>561400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>593900</v>
+      </c>
+      <c r="F46" s="3">
         <v>564600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>583900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>591400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>628900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>550800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>763000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>387300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2538,14 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2373,111 +2582,129 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>139900</v>
+      </c>
+      <c r="F48" s="3">
         <v>139000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>133500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>126700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>128400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>117000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>116700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>124200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>729100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>745000</v>
+      </c>
+      <c r="F49" s="3">
         <v>762700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>769900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>785700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>801300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>812900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>21800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>22500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2750,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2803,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>337900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>50800</v>
+      </c>
+      <c r="F52" s="3">
         <v>47600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>35700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>34600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>38700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>25100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>26600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>24300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2909,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1767900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1529600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1513900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1523000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1538400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1597300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1505800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>928100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>558300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2962,14 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2987,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,60 +3008,68 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>247500</v>
+      </c>
+      <c r="F57" s="3">
         <v>207800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>214500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>215600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>259900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>210100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>157700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>152900</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>33000</v>
       </c>
       <c r="E58" s="3">
         <v>3000</v>
@@ -2816,11 +3083,11 @@
       <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2843,38 +3110,44 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>117700</v>
+      </c>
+      <c r="F59" s="3">
         <v>114400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>118800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>123100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>137600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>125300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>116300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>101200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3163,44 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>366900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>368200</v>
+      </c>
+      <c r="F60" s="3">
         <v>325200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>336200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>341700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>338400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>274000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>254100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,32 +3216,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>192700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F61" s="3">
         <v>284300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>284600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>285000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>285400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>285900</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2984,55 +3269,67 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>103800</v>
+      </c>
+      <c r="F62" s="3">
         <v>102900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>94300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>117700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>143800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>136500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>106700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>59900</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3375,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3428,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3481,44 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>659200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>695100</v>
+      </c>
+      <c r="F66" s="3">
         <v>712400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>715200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>744500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>829700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>760800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>380700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>314000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3534,14 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3559,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3608,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3661,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,14 +3691,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>170200</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3714,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3767,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-83600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-57600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-52600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-56400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-57000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-74300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3820,14 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3873,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3926,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3979,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1108700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>834500</v>
+      </c>
+      <c r="F76" s="3">
         <v>801500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>807800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>793900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>767600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>745000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>547300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>74000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +4032,14 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4085,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-26000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>17300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-67400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>12700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-29400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4221,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F83" s="3">
         <v>23200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>22800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>22700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>23100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>13200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>8600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>8200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>34000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>9800</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4323,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4376,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4429,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4482,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4535,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F89" s="3">
         <v>23200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>8100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>26600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>23100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>139100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>36800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>11000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4613,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-12200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-9400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-10300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-16100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-17800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4715,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4768,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-62800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-44200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-49600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-10700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-590600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-16300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>10900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>5800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4846,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4895,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4948,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5001,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5054,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-62900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-5200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>290000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>346200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-45300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-44200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-41400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>7600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-273500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>356000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>155900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>46100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>15700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>TBLA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,52 +742,55 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>332000</v>
+      </c>
+      <c r="E8" s="3">
         <v>327700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>371300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>332500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>342700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>354700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>407700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>338800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>329100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>303000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1188900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>267700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>279300</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -794,50 +798,53 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>238100</v>
+        <v>234900</v>
       </c>
       <c r="E9" s="3">
         <v>238100</v>
       </c>
       <c r="F9" s="3">
+        <v>238100</v>
+      </c>
+      <c r="G9" s="3">
         <v>229800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>226300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>242700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>264000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>231100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>228800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>213500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>869400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>183600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>226600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -847,50 +854,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E10" s="3">
         <v>89600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>133200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>102700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>116400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>112000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>143700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>107700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>89500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>319500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>84100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52700</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,50 +934,51 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E12" s="3">
         <v>32000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>36200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>34000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>30100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>99400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,50 +1177,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E17" s="3">
         <v>356500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>346200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>353900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>352200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>362400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>389000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>338900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>382500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>281300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1162700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>249400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>299200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1204,50 +1231,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-21400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-53400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,50 +1311,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1331,50 +1365,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>45300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>43700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>28200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-44800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>57400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,35 +1421,38 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1462,8 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1437,50 +1477,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-53500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>20800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>23400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-19400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,52 +1533,55 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,8 +1645,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1605,41 +1657,41 @@
         <v>-31300</v>
       </c>
       <c r="E26" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F26" s="3">
         <v>15200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-61400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-23900</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +1701,11 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1658,41 +1713,41 @@
         <v>-31300</v>
       </c>
       <c r="E27" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F27" s="3">
         <v>15200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-67400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-29400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,50 +1981,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,8 +2037,11 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1976,41 +2049,41 @@
         <v>-31300</v>
       </c>
       <c r="E33" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F33" s="3">
         <v>15200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-67400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-29400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,8 +2149,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2082,41 +2161,41 @@
         <v>-31300</v>
       </c>
       <c r="E35" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F35" s="3">
         <v>15200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-67400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-29400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,55 +2205,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2184,8 +2266,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>204600</v>
+      </c>
+      <c r="E41" s="3">
         <v>218800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>165900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>188500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>233700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>277900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>319300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>311800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>585200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>229300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,29 +2366,32 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E42" s="3">
         <v>55600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>119800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>74700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>40000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2317,8 +2407,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E43" s="3">
         <v>212300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>256700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>184800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>199600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>199300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>245200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>190700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>139000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>125600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2376,8 +2469,8 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E45" s="3">
         <v>74600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>74400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>71500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>75900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>74200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>64400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>536300</v>
+      </c>
+      <c r="E46" s="3">
         <v>561400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>593900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>564600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>583900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>591400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>628900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>550800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>763000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>387300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2588,8 +2693,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E48" s="3">
         <v>139500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>139900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>139000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>133500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>126700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>128400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>117000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>116700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>124200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2641,8 +2749,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2650,41 +2758,44 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>713100</v>
+      </c>
+      <c r="E49" s="3">
         <v>729100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>745000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>762700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>769900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>785700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>801300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>812900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>21800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>22500</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,8 +2805,8 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,41 +2926,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>336800</v>
+      </c>
+      <c r="E52" s="3">
         <v>337900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>47600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>35700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>25100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2853,8 +2973,8 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1721600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1767900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1529600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1513900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1523000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1538400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1597300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1505800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>928100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>558300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>222200</v>
+      </c>
+      <c r="E57" s="3">
         <v>223000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>247500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>207800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>214500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>215600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>259900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>210100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>157700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>152900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3185,8 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3063,16 +3194,19 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
         <v>33000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3000</v>
       </c>
       <c r="F58" s="3">
         <v>3000</v>
@@ -3089,8 +3223,8 @@
       <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>3000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E59" s="3">
         <v>110800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>117700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>118800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>123100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>137600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>125300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>116300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>101200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>346700</v>
+      </c>
+      <c r="E60" s="3">
         <v>366900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>368200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>325200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>336200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>341700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>338400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>274000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>254100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,35 +3362,38 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E61" s="3">
         <v>192700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>223000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>284300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>284600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>285000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>285400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>285900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E62" s="3">
         <v>99600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>103800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>102900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>94300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>117700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>143800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>136500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>106700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>59900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3319,8 +3465,8 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>631300</v>
+      </c>
+      <c r="E66" s="3">
         <v>659200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>695100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>712400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>715200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>744500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>829700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>760800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>380700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>314000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,11 +3865,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>170200</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,41 +3944,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-68400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-83600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-57600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-56400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-57000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1090300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1108700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>834500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>801500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>807800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>793900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>767600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>745000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>547300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,55 +4280,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4149,8 +4341,11 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4158,41 +4353,41 @@
         <v>-31300</v>
       </c>
       <c r="E81" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="F81" s="3">
         <v>15200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-67400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-29400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,52 +4421,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E83" s="3">
         <v>22600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>22800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,50 +4755,53 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E89" s="3">
         <v>17500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>23100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>139100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,52 +4835,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6400</v>
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
         <v>-6400</v>
       </c>
       <c r="F91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-12200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,52 +5001,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E94" s="3">
         <v>35300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-62800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-44200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-49600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-590600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>8300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,52 +5303,55 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-62900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>290000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>346200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5113,52 +5359,55 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>500</v>
       </c>
       <c r="J101" s="3">
         <v>500</v>
       </c>
       <c r="K101" s="3">
+        <v>500</v>
+      </c>
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5166,50 +5415,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E102" s="3">
         <v>53000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-273500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>356000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>155900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>15700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TBLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>TBLA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,78 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,55 +746,58 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>360200</v>
+      </c>
+      <c r="E8" s="3">
         <v>332000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>327700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>371300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>332500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>342700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>354700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>407700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>338800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>329100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>303000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1188900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>267700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>279300</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -801,53 +805,56 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>259600</v>
+      </c>
+      <c r="E9" s="3">
         <v>234900</v>
-      </c>
-      <c r="E9" s="3">
-        <v>238100</v>
       </c>
       <c r="F9" s="3">
         <v>238100</v>
       </c>
       <c r="G9" s="3">
+        <v>238100</v>
+      </c>
+      <c r="H9" s="3">
         <v>229800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>226300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>242700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>264000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>231100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>228800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>213500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>869400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>183600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>226600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,53 +864,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E10" s="3">
         <v>97100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>89600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>133200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>116400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>112000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>143700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>107700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>89500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>319500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>84100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>52700</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,53 +948,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E12" s="3">
         <v>34000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>36200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>30400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>30100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>99400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,53 +1204,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E17" s="3">
         <v>357000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>356500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>346200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>353900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>352200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>362400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>389000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>338900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>382500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>281300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1162700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>249400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>299200</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,53 +1261,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-53400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,53 +1345,54 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1368,53 +1402,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>45300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>43700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-44800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1435,27 +1475,27 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1465,8 +1505,8 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1480,53 +1520,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-53500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>20800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>23400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,55 +1579,58 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,53 +1697,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-31300</v>
+        <v>-23100</v>
       </c>
       <c r="E26" s="3">
         <v>-31300</v>
       </c>
       <c r="F26" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="G26" s="3">
         <v>15200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,53 +1756,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-31300</v>
+        <v>-23100</v>
       </c>
       <c r="E27" s="3">
         <v>-31300</v>
       </c>
       <c r="F27" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="G27" s="3">
         <v>15200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-67400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,53 +2051,56 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,53 +2110,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-31300</v>
+        <v>-23100</v>
       </c>
       <c r="E33" s="3">
         <v>-31300</v>
       </c>
       <c r="F33" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="G33" s="3">
         <v>15200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-67400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,53 +2228,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-31300</v>
+        <v>-23100</v>
       </c>
       <c r="E35" s="3">
         <v>-31300</v>
       </c>
       <c r="F35" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="G35" s="3">
         <v>15200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-67400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,58 +2287,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2269,8 +2351,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238300</v>
+      </c>
+      <c r="E41" s="3">
         <v>204600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>165900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>188500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>233700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>277900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>319300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>311800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>585200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>229300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,32 +2456,35 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E42" s="3">
         <v>42300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>55600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>96900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>119800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>74700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>40000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2500,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2425,44 +2515,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>232100</v>
+      </c>
+      <c r="E43" s="3">
         <v>217400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>212300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>256700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>184800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>199600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>199300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>245200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>190700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>139000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>125600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,8 +2565,8 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,44 +2633,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E45" s="3">
         <v>72000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>74600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>74400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>71500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>75900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>74200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>64400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>48400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>555900</v>
+      </c>
+      <c r="E46" s="3">
         <v>536300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>561400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>593900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>564600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>583900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>591400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>628900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>550800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>763000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>387300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2696,8 +2801,8 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
@@ -2705,44 +2810,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E48" s="3">
         <v>135400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>139500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>139900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>139000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>133500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>126700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>128400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>117000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>116700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>124200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2860,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2761,44 +2869,47 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>697200</v>
+      </c>
+      <c r="E49" s="3">
         <v>713100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>729100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>745000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>762700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>769900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>785700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>801300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>812900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>21800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>22500</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2808,8 +2919,8 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,44 +3046,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>337900</v>
+      </c>
+      <c r="E52" s="3">
         <v>336800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>337900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>47600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>35700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>34600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>24300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,8 +3096,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1731700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1721600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1767900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1529600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1513900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1523000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1538400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1597300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1505800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>928100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>558300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>252700</v>
+      </c>
+      <c r="E57" s="3">
         <v>222200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>223000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>247500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>207800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>214500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>215600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>259900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>210100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>157700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>152900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3188,8 +3319,8 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3197,19 +3328,22 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E58" s="3">
         <v>3000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3000</v>
       </c>
       <c r="G58" s="3">
         <v>3000</v>
@@ -3226,8 +3360,8 @@
       <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="L58" s="3">
+        <v>3000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3253,44 +3387,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E59" s="3">
         <v>121500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>110800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>117700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>118800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>123100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>137600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>116300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E60" s="3">
         <v>346700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>366900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>368200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>325200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>336200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>341700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>338400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>274000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>254100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,38 +3505,41 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E61" s="3">
         <v>192300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>192700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>223000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>284300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>284600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>285000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>285400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>285900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3421,44 +3564,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E62" s="3">
         <v>92300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>99600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>103800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>102900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>94300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>117700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>143800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>136500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>106700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>59900</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3614,8 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>664600</v>
+      </c>
+      <c r="E66" s="3">
         <v>631300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>659200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>695100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>712400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>715200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>744500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>829700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>760800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>380700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>314000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3868,11 +4036,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>170200</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-154200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-131000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-99700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-57600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-74300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1067100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1090300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1108700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>834500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>801500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>807800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>793900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>767600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>745000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>547300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,58 +4472,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4344,53 +4536,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-31300</v>
+        <v>-23100</v>
       </c>
       <c r="E81" s="3">
         <v>-31300</v>
       </c>
       <c r="F81" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="G81" s="3">
         <v>15200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-67400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,55 +4620,56 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E83" s="3">
         <v>22800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>22600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>22500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>23200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>22800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>22700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>23100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,53 +4972,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>23200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>139100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,55 +5056,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-6400</v>
       </c>
       <c r="F91" s="3">
         <v>-6400</v>
       </c>
       <c r="G91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-12200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,55 +5231,58 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E94" s="3">
         <v>9800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>35300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-62800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-44200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-590600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>8300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,55 +5549,58 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-62900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>290000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>346200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5362,55 +5608,58 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-700</v>
-      </c>
-      <c r="J101" s="3">
-        <v>500</v>
       </c>
       <c r="K101" s="3">
         <v>500</v>
       </c>
       <c r="L101" s="3">
+        <v>500</v>
+      </c>
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5418,53 +5667,56 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>53000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-273500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>356000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>155900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>46100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>15700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,6 +5724,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
